--- a/proVidioETG/testDate/Simple Products Skew.xlsx
+++ b/proVidioETG/testDate/Simple Products Skew.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Simple product</t>
   </si>
   <si>
-    <t xml:space="preserve">013742335392M</t>
+    <t xml:space="preserve">013742000443M</t>
   </si>
 </sst>
 </file>
